--- a/medicine/Psychotrope/Louis_Napoléon_Lannes/Louis_Napoléon_Lannes.xlsx
+++ b/medicine/Psychotrope/Louis_Napoléon_Lannes/Louis_Napoléon_Lannes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
+          <t>Louis_Napoléon_Lannes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Louis Napoléon Auguste Lannes, né à Paris le 30 juillet 1801[1] et mort au château de Mareuil-sur-Ay (Marne) le 18 juillet 1874, 2e duc de Montebello, est un diplomate et homme politique français du XIXe siècle.
+Louis Napoléon Auguste Lannes, né à Paris le 30 juillet 1801 et mort au château de Mareuil-sur-Ay (Marne) le 18 juillet 1874, 2e duc de Montebello, est un diplomate et homme politique français du XIXe siècle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
+          <t>Louis_Napoléon_Lannes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,24 +524,96 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils aîné de Jean Lannes, 1er duc de Montebello (mortellement blessé à la bataille d'Essling), et de sa seconde épouse, Louise de Guéhéneuc, Napoléon Lannes fut fait pair de France à la seconde Restauration « en considération des services rendus par son père », mais il ne prit séance au Palais du Luxembourg qu'après la Révolution de 1830.
-Chambre des pairs et diplomatie
-Il a pour précepteur Victor Cousin. Sous son influence, il participe aux complots contre les Bourbons de 1820 et assure le commandement d'une Compagnie franche des écoles[2].
-Polytechnicien démissionnaire (X1821[3],[4]), il voyage beaucoup, notamment aux États-Unis, puis avait été attaché à l'ambassade de France à Rome auprès du vicomte de Chateaubriand (1828-1829). En avril 1829, il se rendit à Bogota (Grande-Colombie) avec Charles Bresson dans une mission secrète: proposer une couronne à Simon Bolivar et faire de la Colombie une monarchie constitutionnelle qui, après la mort de Bolivar, serait régie par un prince français[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Louis_Napoléon_Lannes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chambre des pairs et diplomatie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a pour précepteur Victor Cousin. Sous son influence, il participe aux complots contre les Bourbons de 1820 et assure le commandement d'une Compagnie franche des écoles.
+Polytechnicien démissionnaire (X1821,), il voyage beaucoup, notamment aux États-Unis, puis avait été attaché à l'ambassade de France à Rome auprès du vicomte de Chateaubriand (1828-1829). En avril 1829, il se rendit à Bogota (Grande-Colombie) avec Charles Bresson dans une mission secrète: proposer une couronne à Simon Bolivar et faire de la Colombie une monarchie constitutionnelle qui, après la mort de Bolivar, serait régie par un prince français.
 Il parut d'abord, par ses votes, se rattacher au parti légitimiste, mais il ne tarda pas à se rallier pleinement à la monarchie de Juillet et vota dès lors avec les doctrinaires. Il siège régulièrement à la Chambre des pairs (1830-1833), prit la parole dans un grand nombre de discussions concernant la liberté de la presse, l'hérédité de la pairie (1831), la contrainte par corps, le budget, l'avancement dans l'armée (1832).
-Rentré dans la diplomatie, il fut envoyé en mission au Danemark près la cour de Copenhague (1833), puis nommé ministre plénipotentiaire à Berlin[réf. à confirmer][6].
+Rentré dans la diplomatie, il fut envoyé en mission au Danemark près la cour de Copenhague (1833), puis nommé ministre plénipotentiaire à Berlin[réf. à confirmer].
 À la Chambre des pairs, il appuya l'amendement Cousin à la loi abrogeant la journée de deuil en l'honneur de Louis XVI du 21 janvier. Partisan des lois de septembre 1835, il les soutint à la tribune et proposa à ses collègues de traduire devant eux le gérant du journal La Tribune.
 En 1836, il fut nommé ambassadeur de France près la Confédération suisse en remplacement du marquis de Rumigny, jugé trop favorable aux démocrates helvétiques. Le duc de Montebello ayant des sympathies opposées, sa nomination était destinée à plaire à l'Autriche, dont la France cherchait alors à se rapprocher tant pour rompre son isolement en Europe que pour assurer l'établissement matrimonial du duc d'Orléans. Il obtint des autorités confédérales l'internement des réfugiés politiques pouvant troubler la sécurité des États voisins ainsi que l'expulsion du prince Louis-Napoléon Bonaparte, qui résidait en territoire helvétique, au château d'Arenenberg, mais la manière dont cette demande fut présentée faillit amener la guerre entre les deux pays.
 Il fut ensuite chargé de représenter la France à Naples, auprès du roi des Deux-Siciles, Ferdinand II (1838).
 Il fut appelé, le 1er avril 1839, à remplacer Louis-Mathieu Molé comme ministre des Affaires étrangères dans le ministère provisoire qui fut dissous le 12 mai suivant. Il remit alors son portefeuille au maréchal Soult et rentra dans la Chambre des pairs où il parla sur la propriété littéraire, sur la Légion d'honneur, sur l'emprunt grec, sur le travail des enfants dans les manufactures.
 Il repartit pour Naples comme ambassadeur en 1840, où il négocia le mariage du duc d'Aumale avec Marie-Caroline de Bourbon, princesse de Salerne (1844).
-Le 9 mai 1847, le duc de Montebello remplaça l'amiral-baron de Mackau comme ministre de la Marine et des Colonies dans le gouvernement Guizot. Il présenta, en cette qualité, un rapport au roi dans lequel il se prononçait contre l'émancipation des esclaves, et quelques projets de loi relatifs à la juridiction des cours d'assises aux colonies, aux corps de l'administration du contrôle et de la comptabilité de la marine et participa aux débats sur le budget, sur les défrichements, sur l'enseignement et l'exercice de la médecine et de la pharmacie, etc. L'ayant entendu parler, Victor Hugo, alors son collègue à la Chambre, eut ce mot cruel : « Son père s'appelait Lannes. Je crains qu'il ne faille maintenir la prononciation et changer l'orthographe[7]. »
-Deuxième République et Second Empire
-Il quitta le pouvoir après la Révolution de 1848. Ses opinions conservatrices et monarchistes le firent élire, le 13 mai 1849, le 7e sur 8[8], dans la coalition des « anciens partis », député de la Marne, département dans lequel il possédait des vignobles considérables, à l'Assemblée législative. Il fit partie de la commission dite « de prorogation »[9] et se borna à voter constamment avec la majorité : pour l'expédition de Rome, pour la loi Falloux-Parieu sur l'enseignement libre, pour la restriction du suffrage universel, etc. Il siège au sein de la Commission sur l'assistance et la prévoyance publiques présidée par Thiers.
-Il n'adhéra pas d'emblée au coup d'État du 2 décembre 1851, éleva même des protestations et se tint quelque temps à l'écart. C'est vers cette époque qu'il participa[10], à la fondation[11] de la Compagnie générale des eaux (devenue Vivendi en 1998). Il avait été aussi actionnaire du Globe (1828-1830).
-S'étant ravisé, il fut nommé, le 15 février 1858, ambassadeur en Russie en remplacement du comte de Rayneval[12]. Dans ce poste, où il resta jusqu'en 1864, il eut à négocier, entre autres, la convention du 6 avril 1861 pour la garantie réciproque des œuvres d’art et d’esprit.
+Le 9 mai 1847, le duc de Montebello remplaça l'amiral-baron de Mackau comme ministre de la Marine et des Colonies dans le gouvernement Guizot. Il présenta, en cette qualité, un rapport au roi dans lequel il se prononçait contre l'émancipation des esclaves, et quelques projets de loi relatifs à la juridiction des cours d'assises aux colonies, aux corps de l'administration du contrôle et de la comptabilité de la marine et participa aux débats sur le budget, sur les défrichements, sur l'enseignement et l'exercice de la médecine et de la pharmacie, etc. L'ayant entendu parler, Victor Hugo, alors son collègue à la Chambre, eut ce mot cruel : « Son père s'appelait Lannes. Je crains qu'il ne faille maintenir la prononciation et changer l'orthographe. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Napoléon_Lannes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième République et Second Empire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il quitta le pouvoir après la Révolution de 1848. Ses opinions conservatrices et monarchistes le firent élire, le 13 mai 1849, le 7e sur 8, dans la coalition des « anciens partis », député de la Marne, département dans lequel il possédait des vignobles considérables, à l'Assemblée législative. Il fit partie de la commission dite « de prorogation » et se borna à voter constamment avec la majorité : pour l'expédition de Rome, pour la loi Falloux-Parieu sur l'enseignement libre, pour la restriction du suffrage universel, etc. Il siège au sein de la Commission sur l'assistance et la prévoyance publiques présidée par Thiers.
+Il n'adhéra pas d'emblée au coup d'État du 2 décembre 1851, éleva même des protestations et se tint quelque temps à l'écart. C'est vers cette époque qu'il participa, à la fondation de la Compagnie générale des eaux (devenue Vivendi en 1998). Il avait été aussi actionnaire du Globe (1828-1830).
+S'étant ravisé, il fut nommé, le 15 février 1858, ambassadeur en Russie en remplacement du comte de Rayneval. Dans ce poste, où il resta jusqu'en 1864, il eut à négocier, entre autres, la convention du 6 avril 1861 pour la garantie réciproque des œuvres d’art et d’esprit.
 Un décret du 5 octobre 1864 le nomma sénateur du Second Empire. Il fut admis à la retraite comme ambassadeur le 6 janvier 1866.
 Il a longtemps représenté le canton d'Ay au conseil général de la Marne, dont il fut l’un des vice-présidents.
 Lui et sa femme Eleanor Jenkinson, épousée en 1830, ont 2 filles et 6 fils.
@@ -537,80 +621,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Titres</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2e duc de Montebello et de l'Empire (successeur à la mort de son père en 1809[13],[14]) ;
-Successeur à la possession des biens affectés à la dotation du majorat attaché au titre de duc de Montebello accordé à son père, le maréchal Jean Lannes.[13]
-« Pair de France » (membre de la Chambre des pairs) :
-le 17 août 1815,
-duc et pair héréditaire le 31 août 1817 (lettres patentes du 20 décembre 1817 enregistrées à la chambre des Pairs le 15 janvier 1818, et entérinées à la cour royale de Paris le 2 mai suivant[15],
-Sans majorat[16].
-Admis à siéger le 27 janvier 1827, il ne prit séance au Palais du Luxembourg qu'après la Révolution de 1830</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Décorations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand-croix de la Légion d'honneur (30 octobre 1844)
-Ordre de Saint-André de Russie (conféré par l'Empereur de Russie après son séjour à Nice en 1864)</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
+          <t>Louis_Napoléon_Lannes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,10 +642,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Armoiries</t>
+          <t>Titres</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2e duc de Montebello et de l'Empire (successeur à la mort de son père en 1809,) ;
+Successeur à la possession des biens affectés à la dotation du majorat attaché au titre de duc de Montebello accordé à son père, le maréchal Jean Lannes.
+« Pair de France » (membre de la Chambre des pairs) :
+le 17 août 1815,
+duc et pair héréditaire le 31 août 1817 (lettres patentes du 20 décembre 1817 enregistrées à la chambre des Pairs le 15 janvier 1818, et entérinées à la cour royale de Paris le 2 mai suivant,
+Sans majorat.
+Admis à siéger le 27 janvier 1827, il ne prit séance au Palais du Luxembourg qu'après la Révolution de 1830</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Louis_Napol%C3%A9on_Lannes</t>
+          <t>Louis_Napoléon_Lannes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,10 +680,73 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grand-croix de la Légion d'honneur (30 octobre 1844)
+Ordre de Saint-André de Russie (conféré par l'Empereur de Russie après son séjour à Nice en 1864)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Napoléon_Lannes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Armoiries</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis_Napoléon_Lannes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Napol%C3%A9on_Lannes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Ascendance et postérité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascendance de Louis Napoléon Lannes
@@ -662,21 +754,21 @@
 Postérité de Louis Napoléon Lannes &amp; Eleonor Jenkinson
 Ensemble, ils eurent :
 Jeanne Louise Désirée Cécile (26 février 1832 - Paris † 1905), mariée, le 28 mai 1856 avec Félix Amédée Messier de Saint-James (1814-1883), dont postérié ;
-Napoléon Camille Charles Jean[18] (30 octobre 1835 - Pau † 30 novembre 1876 (à 41 ans) - Pau), 3e duc de Montebello (1874), entre dans la marine en 1852, aspirant (1er avril 1854), enseigne de vaisseau (1er avril 1858, port de Brest), lieutenant de vaisseau (vers 1860), chevalier de la Légion d'honneur[19], marié le 12 août 1873 à Pau, avec Laure Joséphine Marie Daguilhon-Pujol (1851 † 28 octobre 1921), dont :
+Napoléon Camille Charles Jean (30 octobre 1835 - Pau † 30 novembre 1876 (à 41 ans) - Pau), 3e duc de Montebello (1874), entre dans la marine en 1852, aspirant (1er avril 1854), enseigne de vaisseau (1er avril 1858, port de Brest), lieutenant de vaisseau (vers 1860), chevalier de la Légion d'honneur, marié le 12 août 1873 à Pau, avec Laure Joséphine Marie Daguilhon-Pujol (1851 † 28 octobre 1921), dont :
 Napoléon Barbe Joseph Jean (9 avril 1877 † 27 janvier 1899 (à 21 ans)), 4e duc de Montebello (1877) ;
-Charles Louis Maurice (27 octobre 1836 - Berne (Suisse) † 23 décembre 1922 - Paris), 5e duc de Montebello (1899), « prince de Sievers[20] », colonel, journaliste, officier de la Légion d'honneur[21], chevalier de l'Ordre de Saint-Vladimir, marié, le 24 octobre 1865 à Paris VIIIe, avec Thérèse O'Tard de La Grange(-Keith) (1844-1915), dont :
+Charles Louis Maurice (27 octobre 1836 - Berne (Suisse) † 23 décembre 1922 - Paris), 5e duc de Montebello (1899), « prince de Sievers », colonel, journaliste, officier de la Légion d'honneur, chevalier de l'Ordre de Saint-Vladimir, marié, le 24 octobre 1865 à Paris VIIIe, avec Thérèse O'Tard de La Grange(-Keith) (1844-1915), dont :
 Maurice Jean Napoléon (2 janvier 1867 - Paris † 1er août 1917 - Paris, des suites de ses blessures reçues au front), « comte de Montebello », lieutenant, conseiller général de la Charente-Maritime, marié, le 27 février 1902 à Paris, avec Marie Julie Hay (24 novembre 1864 - Tacna (Pérou) † 11 avril 1954 - Biarritz), dont :
-Napoléon Jean Jules (5 mars 1903 - Paris † 22 mai 1988 - château de Mareuil (Dordogne), Mareuil-sur-Belle), 6e duc de Montebello (1922), « prince de Sievers[20] », docteur en droit, journaliste, marié (1°), le 15 avril 1925 à Paris, avec Marie (5 novembre 1898 - Paris † 31 janvier 1929 - Paris), fille de Honoré d'Albert (1868-1924), duc de Luynes ; puis (2°), le 2 juin 1930 à Guéthary, avec Diane Marie Berthe Thérèse (28 avril 1907 - Paris † 12 mai 1987 - La Tour-Blanche), princesse de Broglie. De ces deux unions, il eut :
+Napoléon Jean Jules (5 mars 1903 - Paris † 22 mai 1988 - château de Mareuil (Dordogne), Mareuil-sur-Belle), 6e duc de Montebello (1922), « prince de Sievers », docteur en droit, journaliste, marié (1°), le 15 avril 1925 à Paris, avec Marie (5 novembre 1898 - Paris † 31 janvier 1929 - Paris), fille de Honoré d'Albert (1868-1924), duc de Luynes ; puis (2°), le 2 juin 1930 à Guéthary, avec Diane Marie Berthe Thérèse (28 avril 1907 - Paris † 12 mai 1987 - La Tour-Blanche), princesse de Broglie. De ces deux unions, il eut :
 (1°) Marie Thérèse (née le 6 mars 1928 - Paris) ;
 (1°) Marie-Louise Charlotte (née le 30 janvier 1929 - Paris), mariée, le 24 octobre 1958 à Biarritz, avec Hugues, vicomte d'Elloy de Bonninghen (30 mai 1927 - Moulins (Allier) † novembre 1994 - Nouvelle-Zélande) ;
 (2°) Marguerite Marie Nadine Elisabeth (née le 26 avril 1931 - Paris), mariée, le 30 avril 1955 à Budos (Espagne), avec Mathieu Diesse (3 février 1926 - Bordeaux † 2 juillet 2004), artiste basque, graphiste de l'agence Havas ;
-(2°) Maurice Georges Antoine Marie (né le 2 juillet 1939 - Biarritz), 7e duc de Montebello (1988), « prince de Sievers[20] », cadre de banque, marié, le 23 octobre 1971 à Cellettes, avec le 23 Oct 1971 Johanna Meyer-Ratken (née le 12 avril 1937 - Röpke), dont :
+(2°) Maurice Georges Antoine Marie (né le 2 juillet 1939 - Biarritz), 7e duc de Montebello (1988), « prince de Sievers », cadre de banque, marié, le 23 octobre 1971 à Cellettes, avec le 23 Oct 1971 Johanna Meyer-Ratken (née le 12 avril 1937 - Röpke), dont :
 Jean-Michel Christophe Marie Louis (15 août 1972 - Blois † 7 août 2004 (à 31 ans)), « marquis de Montebello » ;
 Benoît Alexandre Marie Emmanuel (né le 15 août 1973 - Blois), « marquis de Montebello » ;
 Emmanuelle Marie Joseph Thérèse Elisabeth (née le 16 août 1975 - Blois), mariée, le 10 juin 2006 à Mareuil-sur-Belle, avec Laurent Colnat ;
 Désirée Christine Marie Diane (née le 12 octobre 1976 - Blois), scénographe, artiste peintre) ;
 (2°) Charles-Emanuel Dominique François (né le 7 septembre 1942 - Biarritz) ;
-Louis-Gustave (4 octobre 1838 - Lucerne, Suisse † 2 décembre 1907 - Paris XVIIe), ambassadeur à Constantinople (1886-1891) puis à à Saint-Pétersbourg (1891-1902), grand-croix de la Légion d'honneur (1899), marié, le 27 août 1873 à Paris, avec Magdeleine Guillemin (13 mai 1853 - Paris † 10 février 1930 - Paris), présidente de la Société de Secours au blessés militaires (future Croix-Rouge française), chevalier de la Légion d'honneur[22], unique fille du premier mariage d'Auguste Guillemin (1813-1877) avec Louise Chevreux (1828-1859), dont :
+Louis-Gustave (4 octobre 1838 - Lucerne, Suisse † 2 décembre 1907 - Paris XVIIe), ambassadeur à Constantinople (1886-1891) puis à à Saint-Pétersbourg (1891-1902), grand-croix de la Légion d'honneur (1899), marié, le 27 août 1873 à Paris, avec Magdeleine Guillemin (13 mai 1853 - Paris † 10 février 1930 - Paris), présidente de la Société de Secours au blessés militaires (future Croix-Rouge française), chevalier de la Légion d'honneur, unique fille du premier mariage d'Auguste Guillemin (1813-1877) avec Louise Chevreux (1828-1859), dont :
 Louis Auguste Jean (12 juin 1874 - Paris † 24 juillet 1912 - Mériel, foudroyé), dit « le marquis de Montebello », marié le 20 juin 1900 à Paris, avec Marie-Louise (1879-1960), fille du général-comte Adolphe Louis Émile Frédéric de Salignac-Fénelon (1815-1886) et sœur de Bertrand de Fénelon, dont :
 Nicolas (né en 1901, décédé) ;
 Gérard Jean Gustave (6 septembre 1903 - château de Stors, L'Isle-Adam † 22 novembre 1996 - Neuilly-sur-Seine), dit « le marquis de Montebello », marié, le 19 avril 1927 à Paris, avec Nicole Desclercs (4 janvier 1906 - Paris † 21 août 1984 - Lisieux), dont :
@@ -684,8 +776,8 @@
 Joëlle Bernadette Marie Madeleine (née le 11 février 1931 - Paris), mariée, le 7 décembre 1955 à Paris, avec Henri, comte de Fraguier (né le 15 février 1923 - Sceaux), dont postérité ;
 Éliane Claude Louise Marie (née le 14 août 1835 - Mériel) ;
 France Marie Dominique (née le 19 décembre 1943 - L'Isle-Adam), mariée, le 29 juin 1968 à Pont-l'Évêque, avec Denis Henri de Baecque (né le 2 juin 1943 - Keranen, Arradon), diplômé de Sciences Po, dont postérité ;
-Marie-Magdeleine Bernadette Françoise (11 mai 1906 - Paris † 29 mai 1976 - La Chevrelière, Gournay-Loizé), conseillère générale, député(e) des Deux-Sèvres (1958-1973), chevalier de la Légion d'honneur[23], mariée, le 17 avril 1925 à Paris, avec Jacques Paul Charles Aymé, 5e baron de La Chevrelière (10 décembre 1893 - Paris † 30 août 1953 - Londres), chargé de mission du gouvernement (télécommunications internationales), dont postérité ;
-Fernand Edouard Alfred Henri (7 octobre 1843 - Naples (Deux-Siciles) † 20 janvier 1917 - Paris), marié, le 2 mai 1874 à Paris VIIe[24], avec Marie-Elisabeth de Mieulle (1852-1941), dont :
+Marie-Magdeleine Bernadette Françoise (11 mai 1906 - Paris † 29 mai 1976 - La Chevrelière, Gournay-Loizé), conseillère générale, député(e) des Deux-Sèvres (1958-1973), chevalier de la Légion d'honneur, mariée, le 17 avril 1925 à Paris, avec Jacques Paul Charles Aymé, 5e baron de La Chevrelière (10 décembre 1893 - Paris † 30 août 1953 - Londres), chargé de mission du gouvernement (télécommunications internationales), dont postérité ;
+Fernand Edouard Alfred Henri (7 octobre 1843 - Naples (Deux-Siciles) † 20 janvier 1917 - Paris), marié, le 2 mai 1874 à Paris VIIe, avec Marie-Elisabeth de Mieulle (1852-1941), dont :
 Stanislas Marie Alfred (9 octobre 1876 - Paris † 1966), marié, le 4 octobre 1909 à Jouy-en-Josas, avec Marie Delaire de Cambacérès  (née le 21 septembre 1887 - Paris), dont :
 Christian Guy Marie Maurice Alfred (11 mars 1911 - Paris † 30 novembre 1986) ;
 Monique-France Marie Louise Elisabeth (12 janvier 1916 - Paris 25 juillet 1996 - Paris), marié, le 7 septembre 1935 à Paris, avec Paul, comte de Parcevaux (20 décembre 1904 † 24 mai 1994 - Paris) ;
